--- a/relatorios_padaria/Estoque/Relatorio_de_Estoque.xlsx
+++ b/relatorios_padaria/Estoque/Relatorio_de_Estoque.xlsx
@@ -444,7 +444,7 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pães</t>
+          <t>Pães e doces</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>25</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>30</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>4.5</v>

--- a/relatorios_padaria/Estoque/Relatorio_de_Estoque.xlsx
+++ b/relatorios_padaria/Estoque/Relatorio_de_Estoque.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,28 +442,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Código de Barras</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Produto</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Quantidade</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Valor Unitário</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
@@ -472,16 +478,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>pão francês</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Pão francês</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.5</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Pães e doces</t>
         </is>
@@ -490,16 +501,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>pão de queijo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Pão de queijo</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Pães</t>
         </is>
@@ -508,16 +524,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>bolo de chocolate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Bolo de chocolate</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
       <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
         <v>25</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Doces</t>
         </is>
@@ -526,16 +547,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>torta de limão</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Torta de limão</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
       <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Doces</t>
         </is>
@@ -544,16 +570,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>café expresso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Café expresso</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
       <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>4.5</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Bebidas</t>
         </is>
@@ -562,16 +593,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>suco de laranja</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Suco de laranja</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>17</v>
-      </c>
       <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Bebidas</t>
         </is>
@@ -580,16 +616,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>pão de leite</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Pão de leite</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>10000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.7</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Pães</t>
         </is>
@@ -598,23 +639,51 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>pão de sal</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Pão de sal</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>99700</v>
-      </c>
       <c r="C9" t="n">
+        <v>98700</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.6</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Pães</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7891000329665</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Suflair duo nestle</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Doces</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Sistema desenvolvido por ROBSON ALVES</t>
         </is>
